--- a/courses_data.xlsx
+++ b/courses_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\САШАДАША\Desktop\marafon_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA079E0-5DAA-42F2-BB6C-D55BB232FE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5A05DC-453F-4267-9E63-2CF80E8FBD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="60" windowWidth="21150" windowHeight="20010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20100" yWindow="990" windowWidth="15990" windowHeight="20010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Курсы" sheetId="1" r:id="rId1"/>
@@ -795,12 +795,6 @@
 Запишите пережитый опыт пожалуйста, и поделитесь.</t>
   </si>
   <si>
-    <t>Марафон |старт 20.01.25</t>
-  </si>
-  <si>
-    <t>Марафон |старт 22.01.25</t>
-  </si>
-  <si>
     <t>Отчет для задания 1</t>
   </si>
   <si>
@@ -886,6 +880,12 @@
   </si>
   <si>
     <t>Текст отчета</t>
+  </si>
+  <si>
+    <t>Марафон | старт 20.01.25</t>
+  </si>
+  <si>
+    <t>Марафон | старт 22.01.25</t>
   </si>
 </sst>
 </file>
@@ -1389,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1495,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -5577,10 +5577,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E3" s="15">
         <v>0.99930555555555556</v>
@@ -5617,10 +5617,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E5" s="15">
         <v>0.99930555555555556</v>
@@ -5657,10 +5657,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E7" s="15">
         <v>0.99930555555555556</v>
@@ -5697,10 +5697,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E9" s="15">
         <v>0.99930555555555556</v>
@@ -5737,10 +5737,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E11" s="15">
         <v>0.99930555555555556</v>
@@ -5777,10 +5777,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E13" s="15">
         <v>0.99930555555555556</v>
@@ -5817,10 +5817,10 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E15" s="15">
         <v>0.99930555555555556</v>
@@ -5857,10 +5857,10 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E17" s="15">
         <v>0.99930555555555556</v>
@@ -5897,10 +5897,10 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E19" s="15">
         <v>0.99930555555555556</v>
@@ -5937,10 +5937,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E21" s="15">
         <v>0.99930555555555556</v>
@@ -5977,10 +5977,10 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E23" s="15">
         <v>0.99930555555555556</v>
@@ -6017,10 +6017,10 @@
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E25" s="15">
         <v>0.99930555555555556</v>
@@ -6057,10 +6057,10 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E27" s="15">
         <v>0.99930555555555556</v>
@@ -6097,10 +6097,10 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E29" s="15">
         <v>0.99930555555555556</v>
@@ -6137,10 +6137,10 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E31" s="15">
         <v>0.99930555555555556</v>
@@ -6177,10 +6177,10 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E33" s="15">
         <v>0.99930555555555556</v>
@@ -6217,10 +6217,10 @@
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E35" s="15">
         <v>0.99930555555555556</v>
@@ -6257,10 +6257,10 @@
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E37" s="15">
         <v>0.99930555555555556</v>
@@ -6297,10 +6297,10 @@
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E39" s="15">
         <v>0.99930555555555556</v>
@@ -6337,10 +6337,10 @@
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E41" s="15">
         <v>0.99930555555555556</v>
@@ -6377,10 +6377,10 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E43" s="15">
         <v>0.99930555555555556</v>
@@ -6417,10 +6417,10 @@
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E45" s="15">
         <v>0.99930555555555556</v>
@@ -6457,10 +6457,10 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E47" s="15">
         <v>0.99930555555555556</v>
@@ -6497,10 +6497,10 @@
         <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E49" s="15">
         <v>0.99930555555555556</v>
@@ -6537,10 +6537,10 @@
         <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E51" s="15">
         <v>0.99930555555555556</v>
@@ -6577,10 +6577,10 @@
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E53" s="15">
         <v>0.99930555555555556</v>
@@ -6617,10 +6617,10 @@
         <v>27</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E55" s="15">
         <v>0.99930555555555556</v>
@@ -6657,10 +6657,10 @@
         <v>28</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E57" s="19">
         <v>0.99930555555555556</v>
@@ -6697,10 +6697,10 @@
         <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E59" s="15">
         <v>0.99930555555555556</v>
@@ -6737,10 +6737,10 @@
         <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E61" s="15">
         <v>0.99930555555555556</v>
@@ -6777,10 +6777,10 @@
         <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E63" s="15">
         <v>0.99930555555555556</v>
@@ -6817,10 +6817,10 @@
         <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E65" s="15">
         <v>0.99930555555555556</v>
@@ -6857,10 +6857,10 @@
         <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E67" s="15">
         <v>0.99930555555555556</v>
@@ -6897,10 +6897,10 @@
         <v>34</v>
       </c>
       <c r="C69" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E69" s="15">
         <v>0.99930555555555556</v>
@@ -6937,10 +6937,10 @@
         <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E71" s="15">
         <v>0.99930555555555556</v>
@@ -6977,10 +6977,10 @@
         <v>36</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E73" s="15">
         <v>0.99930555555555556</v>
@@ -7017,10 +7017,10 @@
         <v>37</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E75" s="15">
         <v>0.99930555555555556</v>
@@ -7057,10 +7057,10 @@
         <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E77" s="15">
         <v>0.99930555555555556</v>
@@ -7097,10 +7097,10 @@
         <v>39</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E79" s="15">
         <v>0.99930555555555556</v>
@@ -7137,10 +7137,10 @@
         <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E81" s="15">
         <v>0.99930555555555556</v>
@@ -7177,10 +7177,10 @@
         <v>41</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E83" s="15">
         <v>0.99930555555555556</v>
@@ -7217,10 +7217,10 @@
         <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E85" s="15">
         <v>0.99930555555555556</v>
@@ -7257,10 +7257,10 @@
         <v>43</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E87" s="15">
         <v>0.99930555555555556</v>
@@ -7297,10 +7297,10 @@
         <v>44</v>
       </c>
       <c r="C89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E89" s="15">
         <v>0.99930555555555556</v>
@@ -7337,10 +7337,10 @@
         <v>45</v>
       </c>
       <c r="C91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E91" s="15">
         <v>0.99930555555555556</v>
@@ -7377,10 +7377,10 @@
         <v>46</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E93" s="15">
         <v>0.99930555555555556</v>
@@ -7417,10 +7417,10 @@
         <v>47</v>
       </c>
       <c r="C95" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E95" s="15">
         <v>0.99930555555555556</v>
@@ -7457,10 +7457,10 @@
         <v>48</v>
       </c>
       <c r="C97" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E97" s="15">
         <v>0.99930555555555556</v>
@@ -7497,10 +7497,10 @@
         <v>49</v>
       </c>
       <c r="C99" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E99" s="15">
         <v>0.99930555555555556</v>
@@ -7537,10 +7537,10 @@
         <v>50</v>
       </c>
       <c r="C101" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E101" s="15">
         <v>0.99930555555555556</v>
@@ -7577,10 +7577,10 @@
         <v>51</v>
       </c>
       <c r="C103" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E103" s="15">
         <v>0.99930555555555556</v>
@@ -7617,10 +7617,10 @@
         <v>52</v>
       </c>
       <c r="C105" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E105" s="15">
         <v>0.99930555555555556</v>
@@ -7657,10 +7657,10 @@
         <v>53</v>
       </c>
       <c r="C107" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E107" s="15">
         <v>0.99930555555555556</v>
@@ -7697,10 +7697,10 @@
         <v>54</v>
       </c>
       <c r="C109" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E109" s="15">
         <v>0.99930555555555556</v>
@@ -7737,10 +7737,10 @@
         <v>55</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E111" s="15">
         <v>0.99930555555555556</v>
@@ -7777,10 +7777,10 @@
         <v>56</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E113" s="19">
         <v>0.99930555555555556</v>
@@ -7817,10 +7817,10 @@
         <v>57</v>
       </c>
       <c r="C115" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E115" s="15">
         <v>0.99930555555555556</v>
@@ -7857,10 +7857,10 @@
         <v>58</v>
       </c>
       <c r="C117" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E117" s="15">
         <v>0.99930555555555556</v>
@@ -7897,10 +7897,10 @@
         <v>59</v>
       </c>
       <c r="C119" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E119" s="15">
         <v>0.99930555555555556</v>
@@ -7937,10 +7937,10 @@
         <v>60</v>
       </c>
       <c r="C121" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E121" s="15">
         <v>0.99930555555555556</v>
@@ -7977,10 +7977,10 @@
         <v>61</v>
       </c>
       <c r="C123" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E123" s="15">
         <v>0.99930555555555556</v>
@@ -8017,10 +8017,10 @@
         <v>62</v>
       </c>
       <c r="C125" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E125" s="15">
         <v>0.99930555555555556</v>
@@ -8057,10 +8057,10 @@
         <v>63</v>
       </c>
       <c r="C127" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E127" s="15">
         <v>0.99930555555555556</v>
@@ -8097,10 +8097,10 @@
         <v>64</v>
       </c>
       <c r="C129" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E129" s="15">
         <v>0.99930555555555556</v>
@@ -8137,10 +8137,10 @@
         <v>65</v>
       </c>
       <c r="C131" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E131" s="15">
         <v>0.99930555555555556</v>
@@ -8177,10 +8177,10 @@
         <v>66</v>
       </c>
       <c r="C133" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E133" s="15">
         <v>0.99930555555555556</v>
@@ -8217,10 +8217,10 @@
         <v>67</v>
       </c>
       <c r="C135" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E135" s="15">
         <v>0.99930555555555556</v>
@@ -8257,10 +8257,10 @@
         <v>68</v>
       </c>
       <c r="C137" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E137" s="15">
         <v>0.99930555555555556</v>
@@ -8297,10 +8297,10 @@
         <v>69</v>
       </c>
       <c r="C139" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E139" s="15">
         <v>0.99930555555555556</v>
@@ -8337,10 +8337,10 @@
         <v>70</v>
       </c>
       <c r="C141" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E141" s="15">
         <v>0.99930555555555556</v>
@@ -8377,10 +8377,10 @@
         <v>71</v>
       </c>
       <c r="C143" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E143" s="15">
         <v>0.99930555555555556</v>
@@ -8417,10 +8417,10 @@
         <v>72</v>
       </c>
       <c r="C145" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E145" s="15">
         <v>0.99930555555555556</v>
@@ -8457,10 +8457,10 @@
         <v>73</v>
       </c>
       <c r="C147" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E147" s="15">
         <v>0.99930555555555556</v>
@@ -8497,10 +8497,10 @@
         <v>74</v>
       </c>
       <c r="C149" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E149" s="15">
         <v>0.99930555555555556</v>
@@ -8537,10 +8537,10 @@
         <v>75</v>
       </c>
       <c r="C151" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E151" s="15">
         <v>0.99930555555555556</v>
@@ -8577,10 +8577,10 @@
         <v>76</v>
       </c>
       <c r="C153" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E153" s="15">
         <v>0.99930555555555556</v>
@@ -8617,10 +8617,10 @@
         <v>77</v>
       </c>
       <c r="C155" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E155" s="15">
         <v>0.99930555555555556</v>
@@ -8657,10 +8657,10 @@
         <v>78</v>
       </c>
       <c r="C157" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E157" s="15">
         <v>0.99930555555555556</v>
@@ -8697,10 +8697,10 @@
         <v>79</v>
       </c>
       <c r="C159" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E159" s="15">
         <v>0.99930555555555556</v>
@@ -8737,10 +8737,10 @@
         <v>80</v>
       </c>
       <c r="C161" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E161" s="15">
         <v>0.99930555555555556</v>
@@ -8777,10 +8777,10 @@
         <v>81</v>
       </c>
       <c r="C163" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E163" s="15">
         <v>0.99930555555555556</v>
@@ -8817,10 +8817,10 @@
         <v>82</v>
       </c>
       <c r="C165" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E165" s="15">
         <v>0.99930555555555556</v>
@@ -8857,10 +8857,10 @@
         <v>83</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E167" s="15">
         <v>0.99930555555555556</v>
@@ -8897,10 +8897,10 @@
         <v>84</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E169" s="19">
         <v>0.99930555555555556</v>
@@ -8937,10 +8937,10 @@
         <v>85</v>
       </c>
       <c r="C171" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E171" s="15">
         <v>0.99930555555555556</v>
@@ -8977,10 +8977,10 @@
         <v>86</v>
       </c>
       <c r="C173" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E173" s="15">
         <v>0.99930555555555556</v>
@@ -9017,10 +9017,10 @@
         <v>87</v>
       </c>
       <c r="C175" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E175" s="15">
         <v>0.99930555555555556</v>
@@ -9057,10 +9057,10 @@
         <v>88</v>
       </c>
       <c r="C177" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E177" s="15">
         <v>0.99930555555555556</v>
@@ -9097,10 +9097,10 @@
         <v>89</v>
       </c>
       <c r="C179" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E179" s="15">
         <v>0.99930555555555556</v>
@@ -9137,10 +9137,10 @@
         <v>90</v>
       </c>
       <c r="C181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E181" s="15">
         <v>0.99930555555555556</v>
@@ -9177,10 +9177,10 @@
         <v>91</v>
       </c>
       <c r="C183" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E183" s="15">
         <v>0.99930555555555556</v>
@@ -9217,10 +9217,10 @@
         <v>92</v>
       </c>
       <c r="C185" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E185" s="15">
         <v>0.99930555555555556</v>
@@ -9257,10 +9257,10 @@
         <v>93</v>
       </c>
       <c r="C187" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E187" s="15">
         <v>0.99930555555555556</v>
@@ -9297,10 +9297,10 @@
         <v>94</v>
       </c>
       <c r="C189" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E189" s="15">
         <v>0.99930555555555556</v>
@@ -9337,10 +9337,10 @@
         <v>95</v>
       </c>
       <c r="C191" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E191" s="15">
         <v>0.99930555555555556</v>
@@ -9377,10 +9377,10 @@
         <v>96</v>
       </c>
       <c r="C193" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E193" s="15">
         <v>0.99930555555555556</v>
@@ -9417,10 +9417,10 @@
         <v>97</v>
       </c>
       <c r="C195" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E195" s="15">
         <v>0.99930555555555556</v>
@@ -9457,10 +9457,10 @@
         <v>98</v>
       </c>
       <c r="C197" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E197" s="15">
         <v>0.99930555555555556</v>
@@ -9497,10 +9497,10 @@
         <v>99</v>
       </c>
       <c r="C199" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E199" s="15">
         <v>0.99930555555555556</v>
@@ -9537,10 +9537,10 @@
         <v>100</v>
       </c>
       <c r="C201" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E201" s="15">
         <v>0.99930555555555556</v>
@@ -9577,10 +9577,10 @@
         <v>101</v>
       </c>
       <c r="C203" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E203" s="15">
         <v>0.99930555555555556</v>
@@ -9617,10 +9617,10 @@
         <v>102</v>
       </c>
       <c r="C205" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E205" s="15">
         <v>0.99930555555555556</v>
@@ -9657,10 +9657,10 @@
         <v>103</v>
       </c>
       <c r="C207" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E207" s="15">
         <v>0.99930555555555556</v>
@@ -9697,10 +9697,10 @@
         <v>104</v>
       </c>
       <c r="C209" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E209" s="15">
         <v>0.99930555555555556</v>
@@ -9737,10 +9737,10 @@
         <v>105</v>
       </c>
       <c r="C211" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E211" s="15">
         <v>0.99930555555555556</v>
@@ -9777,10 +9777,10 @@
         <v>106</v>
       </c>
       <c r="C213" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E213" s="15">
         <v>0.99930555555555556</v>
@@ -9817,10 +9817,10 @@
         <v>107</v>
       </c>
       <c r="C215" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E215" s="15">
         <v>0.99930555555555556</v>
@@ -9857,10 +9857,10 @@
         <v>108</v>
       </c>
       <c r="C217" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E217" s="15">
         <v>0.99930555555555556</v>
@@ -9897,10 +9897,10 @@
         <v>109</v>
       </c>
       <c r="C219" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E219" s="15">
         <v>0.99930555555555556</v>
@@ -9937,10 +9937,10 @@
         <v>110</v>
       </c>
       <c r="C221" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E221" s="15">
         <v>0.99930555555555556</v>
@@ -9977,10 +9977,10 @@
         <v>111</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E223" s="15">
         <v>0.99930555555555556</v>
@@ -10017,10 +10017,10 @@
         <v>112</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D225" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E225" s="19">
         <v>0.99930555555555556</v>
@@ -10057,10 +10057,10 @@
         <v>113</v>
       </c>
       <c r="C227" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E227" s="15">
         <v>0.99930555555555556</v>
@@ -10097,10 +10097,10 @@
         <v>114</v>
       </c>
       <c r="C229" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E229" s="15">
         <v>0.99930555555555556</v>
@@ -10137,10 +10137,10 @@
         <v>115</v>
       </c>
       <c r="C231" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E231" s="15">
         <v>0.99930555555555556</v>
@@ -10177,10 +10177,10 @@
         <v>116</v>
       </c>
       <c r="C233" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E233" s="15">
         <v>0.99930555555555556</v>
@@ -10217,10 +10217,10 @@
         <v>117</v>
       </c>
       <c r="C235" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E235" s="15">
         <v>0.99930555555555556</v>
@@ -10257,10 +10257,10 @@
         <v>118</v>
       </c>
       <c r="C237" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E237" s="15">
         <v>0.99930555555555556</v>
@@ -10297,10 +10297,10 @@
         <v>119</v>
       </c>
       <c r="C239" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E239" s="15">
         <v>0.99930555555555556</v>
@@ -10337,10 +10337,10 @@
         <v>120</v>
       </c>
       <c r="C241" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E241" s="15">
         <v>0.99930555555555556</v>
@@ -10377,10 +10377,10 @@
         <v>121</v>
       </c>
       <c r="C243" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E243" s="15">
         <v>0.99930555555555556</v>
@@ -10417,10 +10417,10 @@
         <v>122</v>
       </c>
       <c r="C245" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E245" s="15">
         <v>0.99930555555555556</v>
@@ -10457,10 +10457,10 @@
         <v>123</v>
       </c>
       <c r="C247" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E247" s="15">
         <v>0.99930555555555556</v>
@@ -10497,10 +10497,10 @@
         <v>124</v>
       </c>
       <c r="C249" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E249" s="15">
         <v>0.99930555555555556</v>
@@ -10537,10 +10537,10 @@
         <v>125</v>
       </c>
       <c r="C251" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E251" s="15">
         <v>0.99930555555555556</v>
@@ -10577,10 +10577,10 @@
         <v>126</v>
       </c>
       <c r="C253" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E253" s="15">
         <v>0.99930555555555556</v>
@@ -10617,10 +10617,10 @@
         <v>127</v>
       </c>
       <c r="C255" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E255" s="15">
         <v>0.99930555555555556</v>
@@ -10657,10 +10657,10 @@
         <v>128</v>
       </c>
       <c r="C257" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E257" s="15">
         <v>0.99930555555555556</v>
@@ -10697,10 +10697,10 @@
         <v>129</v>
       </c>
       <c r="C259" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E259" s="15">
         <v>0.99930555555555556</v>
@@ -10737,10 +10737,10 @@
         <v>130</v>
       </c>
       <c r="C261" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E261" s="15">
         <v>0.99930555555555556</v>
@@ -10777,10 +10777,10 @@
         <v>131</v>
       </c>
       <c r="C263" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E263" s="15">
         <v>0.99930555555555556</v>
@@ -10817,10 +10817,10 @@
         <v>132</v>
       </c>
       <c r="C265" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E265" s="15">
         <v>0.99930555555555556</v>
@@ -10857,10 +10857,10 @@
         <v>133</v>
       </c>
       <c r="C267" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E267" s="15">
         <v>0.99930555555555556</v>
@@ -10897,10 +10897,10 @@
         <v>134</v>
       </c>
       <c r="C269" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E269" s="15">
         <v>0.99930555555555556</v>
@@ -10937,10 +10937,10 @@
         <v>135</v>
       </c>
       <c r="C271" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E271" s="15">
         <v>0.99930555555555556</v>
@@ -10977,10 +10977,10 @@
         <v>136</v>
       </c>
       <c r="C273" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E273" s="15">
         <v>0.99930555555555556</v>
@@ -11017,10 +11017,10 @@
         <v>137</v>
       </c>
       <c r="C275" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E275" s="15">
         <v>0.99930555555555556</v>
@@ -11057,10 +11057,10 @@
         <v>138</v>
       </c>
       <c r="C277" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E277" s="15">
         <v>0.99930555555555556</v>
@@ -11097,10 +11097,10 @@
         <v>139</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E279" s="15">
         <v>0.99930555555555556</v>
@@ -11137,10 +11137,10 @@
         <v>140</v>
       </c>
       <c r="C281" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E281" s="19">
         <v>0.99930555555555556</v>
@@ -11177,10 +11177,10 @@
         <v>141</v>
       </c>
       <c r="C283" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E283" s="15">
         <v>0.99930555555555556</v>
@@ -11217,10 +11217,10 @@
         <v>142</v>
       </c>
       <c r="C285" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E285" s="15">
         <v>0.99930555555555556</v>
@@ -11257,10 +11257,10 @@
         <v>143</v>
       </c>
       <c r="C287" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E287" s="15">
         <v>0.99930555555555556</v>
@@ -11297,10 +11297,10 @@
         <v>144</v>
       </c>
       <c r="C289" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E289" s="15">
         <v>0.99930555555555556</v>
@@ -11337,10 +11337,10 @@
         <v>145</v>
       </c>
       <c r="C291" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E291" s="15">
         <v>0.99930555555555556</v>
@@ -11377,10 +11377,10 @@
         <v>146</v>
       </c>
       <c r="C293" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E293" s="15">
         <v>0.99930555555555556</v>
@@ -11417,10 +11417,10 @@
         <v>147</v>
       </c>
       <c r="C295" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E295" s="15">
         <v>0.99930555555555556</v>
@@ -11457,10 +11457,10 @@
         <v>148</v>
       </c>
       <c r="C297" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E297" s="15">
         <v>0.99930555555555556</v>
@@ -11497,10 +11497,10 @@
         <v>149</v>
       </c>
       <c r="C299" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E299" s="15">
         <v>0.99930555555555556</v>
@@ -11537,10 +11537,10 @@
         <v>150</v>
       </c>
       <c r="C301" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E301" s="15">
         <v>0.99930555555555556</v>
@@ -11577,10 +11577,10 @@
         <v>151</v>
       </c>
       <c r="C303" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E303" s="15">
         <v>0.99930555555555556</v>
@@ -11617,10 +11617,10 @@
         <v>152</v>
       </c>
       <c r="C305" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E305" s="15">
         <v>0.99930555555555556</v>
@@ -11657,10 +11657,10 @@
         <v>153</v>
       </c>
       <c r="C307" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E307" s="15">
         <v>0.99930555555555556</v>
@@ -11697,10 +11697,10 @@
         <v>154</v>
       </c>
       <c r="C309" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E309" s="15">
         <v>0.99930555555555556</v>
@@ -11737,10 +11737,10 @@
         <v>155</v>
       </c>
       <c r="C311" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E311" s="15">
         <v>0.99930555555555556</v>
@@ -11777,10 +11777,10 @@
         <v>156</v>
       </c>
       <c r="C313" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E313" s="15">
         <v>0.99930555555555556</v>
@@ -11817,10 +11817,10 @@
         <v>157</v>
       </c>
       <c r="C315" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E315" s="15">
         <v>0.99930555555555556</v>
@@ -11857,10 +11857,10 @@
         <v>158</v>
       </c>
       <c r="C317" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E317" s="15">
         <v>0.99930555555555556</v>
@@ -11897,10 +11897,10 @@
         <v>159</v>
       </c>
       <c r="C319" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E319" s="15">
         <v>0.99930555555555556</v>
@@ -11937,10 +11937,10 @@
         <v>160</v>
       </c>
       <c r="C321" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E321" s="15">
         <v>0.99930555555555556</v>
@@ -11977,10 +11977,10 @@
         <v>161</v>
       </c>
       <c r="C323" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E323" s="15">
         <v>0.99930555555555556</v>
@@ -12017,10 +12017,10 @@
         <v>162</v>
       </c>
       <c r="C325" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E325" s="15">
         <v>0.99930555555555556</v>
@@ -12057,10 +12057,10 @@
         <v>163</v>
       </c>
       <c r="C327" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E327" s="15">
         <v>0.99930555555555556</v>
@@ -12097,10 +12097,10 @@
         <v>164</v>
       </c>
       <c r="C329" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E329" s="15">
         <v>0.99930555555555556</v>
@@ -12137,10 +12137,10 @@
         <v>165</v>
       </c>
       <c r="C331" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E331" s="15">
         <v>0.99930555555555556</v>
@@ -12177,10 +12177,10 @@
         <v>166</v>
       </c>
       <c r="C333" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E333" s="15">
         <v>0.99930555555555556</v>
@@ -12217,10 +12217,10 @@
         <v>167</v>
       </c>
       <c r="C335" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D335" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E335" s="15">
         <v>0.99930555555555556</v>
@@ -12257,10 +12257,10 @@
         <v>168</v>
       </c>
       <c r="C337" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D337" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E337" s="19">
         <v>0.99930555555555556</v>
@@ -12297,10 +12297,10 @@
         <v>169</v>
       </c>
       <c r="C339" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E339" s="15">
         <v>0.99930555555555556</v>
@@ -12337,10 +12337,10 @@
         <v>170</v>
       </c>
       <c r="C341" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D341" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E341" s="15">
         <v>0.99930555555555556</v>
@@ -12377,10 +12377,10 @@
         <v>171</v>
       </c>
       <c r="C343" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D343" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E343" s="15">
         <v>0.99930555555555556</v>
@@ -12417,10 +12417,10 @@
         <v>172</v>
       </c>
       <c r="C345" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E345" s="15">
         <v>0.99930555555555556</v>
@@ -12457,10 +12457,10 @@
         <v>173</v>
       </c>
       <c r="C347" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E347" s="15">
         <v>0.99930555555555556</v>
@@ -12497,10 +12497,10 @@
         <v>174</v>
       </c>
       <c r="C349" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E349" s="15">
         <v>0.99930555555555556</v>
@@ -12537,10 +12537,10 @@
         <v>175</v>
       </c>
       <c r="C351" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E351" s="15">
         <v>0.99930555555555556</v>
@@ -12577,10 +12577,10 @@
         <v>176</v>
       </c>
       <c r="C353" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E353" s="15">
         <v>0.99930555555555556</v>
@@ -12617,10 +12617,10 @@
         <v>177</v>
       </c>
       <c r="C355" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E355" s="15">
         <v>0.99930555555555556</v>
@@ -12657,10 +12657,10 @@
         <v>178</v>
       </c>
       <c r="C357" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D357" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E357" s="15">
         <v>0.99930555555555556</v>
@@ -12697,10 +12697,10 @@
         <v>179</v>
       </c>
       <c r="C359" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D359" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E359" s="15">
         <v>0.99930555555555556</v>
@@ -12737,10 +12737,10 @@
         <v>180</v>
       </c>
       <c r="C361" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E361" s="15">
         <v>0.99930555555555556</v>
@@ -12777,10 +12777,10 @@
         <v>181</v>
       </c>
       <c r="C363" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D363" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E363" s="15">
         <v>0.99930555555555556</v>
@@ -12817,10 +12817,10 @@
         <v>182</v>
       </c>
       <c r="C365" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E365" s="15">
         <v>0.99930555555555556</v>
@@ -12857,10 +12857,10 @@
         <v>183</v>
       </c>
       <c r="C367" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D367" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E367" s="15">
         <v>0.99930555555555556</v>
@@ -12897,10 +12897,10 @@
         <v>184</v>
       </c>
       <c r="C369" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E369" s="15">
         <v>0.99930555555555556</v>
@@ -12937,10 +12937,10 @@
         <v>185</v>
       </c>
       <c r="C371" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D371" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E371" s="15">
         <v>0.99930555555555556</v>
@@ -12977,10 +12977,10 @@
         <v>186</v>
       </c>
       <c r="C373" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E373" s="15">
         <v>0.99930555555555556</v>
@@ -13017,10 +13017,10 @@
         <v>187</v>
       </c>
       <c r="C375" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D375" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E375" s="15">
         <v>0.99930555555555556</v>
@@ -13057,10 +13057,10 @@
         <v>188</v>
       </c>
       <c r="C377" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D377" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E377" s="15">
         <v>0.99930555555555556</v>
@@ -13097,10 +13097,10 @@
         <v>189</v>
       </c>
       <c r="C379" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D379" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E379" s="15">
         <v>0.99930555555555556</v>
@@ -13137,10 +13137,10 @@
         <v>190</v>
       </c>
       <c r="C381" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D381" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E381" s="15">
         <v>0.99930555555555556</v>
@@ -13177,10 +13177,10 @@
         <v>191</v>
       </c>
       <c r="C383" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D383" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E383" s="15">
         <v>0.99930555555555556</v>
@@ -13217,10 +13217,10 @@
         <v>192</v>
       </c>
       <c r="C385" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D385" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E385" s="15">
         <v>0.99930555555555556</v>
@@ -13257,10 +13257,10 @@
         <v>193</v>
       </c>
       <c r="C387" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D387" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E387" s="15">
         <v>0.99930555555555556</v>
@@ -13297,10 +13297,10 @@
         <v>194</v>
       </c>
       <c r="C389" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D389" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E389" s="15">
         <v>0.99930555555555556</v>
@@ -13337,10 +13337,10 @@
         <v>195</v>
       </c>
       <c r="C391" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D391" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E391" s="15">
         <v>0.99930555555555556</v>
@@ -13377,10 +13377,10 @@
         <v>196</v>
       </c>
       <c r="C393" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D393" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E393" s="19">
         <v>0.99930555555555556</v>
@@ -13417,10 +13417,10 @@
         <v>197</v>
       </c>
       <c r="C395" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D395" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E395" s="15">
         <v>0.99930555555555556</v>
@@ -13457,10 +13457,10 @@
         <v>198</v>
       </c>
       <c r="C397" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D397" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E397" s="15">
         <v>0.99930555555555556</v>
@@ -13497,10 +13497,10 @@
         <v>199</v>
       </c>
       <c r="C399" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D399" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E399" s="15">
         <v>0.99930555555555556</v>
@@ -13537,10 +13537,10 @@
         <v>200</v>
       </c>
       <c r="C401" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D401" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E401" s="15">
         <v>0.99930555555555556</v>
@@ -13577,10 +13577,10 @@
         <v>201</v>
       </c>
       <c r="C403" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D403" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E403" s="15">
         <v>0.99930555555555556</v>
@@ -13617,10 +13617,10 @@
         <v>202</v>
       </c>
       <c r="C405" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D405" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E405" s="15">
         <v>0.99930555555555556</v>
@@ -13657,10 +13657,10 @@
         <v>203</v>
       </c>
       <c r="C407" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D407" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E407" s="15">
         <v>0.99930555555555556</v>
@@ -13697,10 +13697,10 @@
         <v>204</v>
       </c>
       <c r="C409" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D409" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E409" s="15">
         <v>0.99930555555555556</v>
@@ -13737,10 +13737,10 @@
         <v>205</v>
       </c>
       <c r="C411" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D411" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E411" s="15">
         <v>0.99930555555555556</v>
@@ -13777,10 +13777,10 @@
         <v>206</v>
       </c>
       <c r="C413" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D413" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E413" s="15">
         <v>0.99930555555555556</v>
@@ -13817,10 +13817,10 @@
         <v>207</v>
       </c>
       <c r="C415" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D415" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E415" s="15">
         <v>0.99930555555555556</v>
@@ -13857,10 +13857,10 @@
         <v>208</v>
       </c>
       <c r="C417" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D417" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E417" s="15">
         <v>0.99930555555555556</v>
@@ -13897,10 +13897,10 @@
         <v>209</v>
       </c>
       <c r="C419" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D419" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E419" s="15">
         <v>0.99930555555555556</v>
@@ -13937,10 +13937,10 @@
         <v>210</v>
       </c>
       <c r="C421" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D421" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E421" s="15">
         <v>0.99930555555555556</v>
@@ -13977,10 +13977,10 @@
         <v>211</v>
       </c>
       <c r="C423" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D423" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E423" s="15">
         <v>0.99930555555555556</v>
@@ -14017,10 +14017,10 @@
         <v>212</v>
       </c>
       <c r="C425" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D425" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E425" s="15">
         <v>0.99930555555555556</v>
@@ -14057,10 +14057,10 @@
         <v>213</v>
       </c>
       <c r="C427" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D427" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E427" s="15">
         <v>0.99930555555555556</v>
@@ -14097,10 +14097,10 @@
         <v>214</v>
       </c>
       <c r="C429" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D429" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E429" s="15">
         <v>0.99930555555555556</v>
@@ -14137,10 +14137,10 @@
         <v>215</v>
       </c>
       <c r="C431" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D431" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E431" s="15">
         <v>0.99930555555555556</v>
@@ -14177,10 +14177,10 @@
         <v>216</v>
       </c>
       <c r="C433" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D433" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E433" s="15">
         <v>0.99930555555555556</v>
@@ -14217,10 +14217,10 @@
         <v>217</v>
       </c>
       <c r="C435" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D435" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E435" s="15">
         <v>0.99930555555555556</v>
@@ -14257,10 +14257,10 @@
         <v>218</v>
       </c>
       <c r="C437" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D437" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E437" s="15">
         <v>0.99930555555555556</v>
@@ -14297,10 +14297,10 @@
         <v>219</v>
       </c>
       <c r="C439" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D439" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E439" s="15">
         <v>0.99930555555555556</v>
@@ -14337,10 +14337,10 @@
         <v>220</v>
       </c>
       <c r="C441" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D441" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E441" s="15">
         <v>0.99930555555555556</v>
@@ -14377,10 +14377,10 @@
         <v>221</v>
       </c>
       <c r="C443" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D443" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E443" s="15">
         <v>0.99930555555555556</v>
@@ -14417,10 +14417,10 @@
         <v>222</v>
       </c>
       <c r="C445" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D445" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E445" s="15">
         <v>0.99930555555555556</v>
@@ -14457,10 +14457,10 @@
         <v>223</v>
       </c>
       <c r="C447" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D447" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E447" s="15">
         <v>0.99930555555555556</v>
@@ -14497,10 +14497,10 @@
         <v>224</v>
       </c>
       <c r="C449" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D449" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E449" s="19">
         <v>0.99930555555555556</v>
@@ -15889,7 +15889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA919A9-F07D-4DDF-839D-885645D212A9}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
